--- a/data/strat_signal.xlsx
+++ b/data/strat_signal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\longrun\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="strat_signal" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -589,6 +594,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -596,7 +604,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -610,11 +618,20 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
@@ -625,6 +642,32 @@
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -638,6 +681,21 @@
           <c:tx>
             <c:v>Raw Signal</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2251,6 +2309,21 @@
           <c:tx>
             <c:v>MA60</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3864,6 +3937,21 @@
           <c:tx>
             <c:v>MA150</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5479,13 +5567,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86005632"/>
-        <c:axId val="89203456"/>
+        <c:axId val="275755904"/>
+        <c:axId val="184180480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86005632"/>
+        <c:axId val="275755904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,29 +5582,88 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89203456"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184180480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89203456"/>
+        <c:axId val="184180480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
@@ -5528,25 +5674,138 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86005632"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275755904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5558,7 +5817,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5590,7 +5849,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33765101617556798"/>
+          <c:y val="1.4249363867684479E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7568,8 +7834,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170900864"/>
-        <c:axId val="193128704"/>
+        <c:axId val="527645248"/>
+        <c:axId val="520211552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7916,11 +8182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91351296"/>
-        <c:axId val="91349760"/>
+        <c:axId val="520212336"/>
+        <c:axId val="520211944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="170900864"/>
+        <c:axId val="527645248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7931,14 +8197,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193128704"/>
+        <c:crossAx val="520211552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="193128704"/>
+        <c:axId val="520211552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -7948,6 +8214,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Signal</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -7955,12 +8236,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170900864"/>
+        <c:crossAx val="527645248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91349760"/>
+        <c:axId val="520211944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7970,12 +8251,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91351296"/>
+        <c:crossAx val="520212336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="91351296"/>
+        <c:axId val="520212336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7984,7 +8265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91349760"/>
+        <c:crossAx val="520211944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8009,18 +8290,3902 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Case Study 2018 Feb XIV Bust</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Raw Signal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>strat_signal!$A$1763:$A$1866</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>43102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43168</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43227</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43229</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43230</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43236</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43238</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>strat_signal!$B$1763:$B$1866</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.856657608695652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85496183206106802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85118219749652202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84989429175475695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85503166783954898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86662011173184295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.863731656184486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86180014174344399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86036671368124096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88258839226150698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89045698924731098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89636963696369598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88021534320323003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87533692722371903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88487282463186001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88721311475409803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88888888888888795</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89080079417604197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92874845105328296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94338498212157296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92777085927770797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92578616352201204</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97369925671812396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1458248472504999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1025998142989699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.05836397058823</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0980313378866999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.07506471095772</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.03532608695652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.04522381172127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97924050632911397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98350515463917498</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98408624229979402</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99850299401197595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99453823237338601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98450413223140398</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96101043382756701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96136363636363598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98753894080996796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99499749874937404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.01516587677725</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99449173760640897</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98411885245901598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98163265306122405</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.969135802469135</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.96292372881355903</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94763231197771602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.954423592493297</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95705196182396601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.96804123711340195</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95290423861852402</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.94917067950775802</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98375634517766497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96622313203684695</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95997947665469396</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.01026119402985</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.996937882764654</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99043062200956899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99727272727272698</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0008972633467901</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.976247030878859</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.01074787281683</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98871119473188995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.97937649880095901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97416790859413804</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99019149929939199</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99718177548144604</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98313253012048096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97932692307692304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.96496496496496498</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.95865633074935397</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.94938732019179495</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.931780366056572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.93697713329615095</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.94014277869302498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.95013404825737202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.94396082698585404</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.95947368421052603</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95997893628225395</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.94532531437944201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.93743139407244702</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.94599018003273305</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.93528761061946897</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.94213973799126605</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.93777533039647498</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.93329596412556004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93068753493571799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.927927927927927</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.91372321945570301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90552584670231695</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89438744719372298</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.89360393603935995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92609970674486797</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.91204819277108395</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.90318701142513502</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.90470518165574698</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.90233415233415204</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.90731707317073096</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89437924644842404</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.89294554455445496</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.90261716372489298</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.95484949832775901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.92699884125144805</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.93101482326111695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MA60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>strat_signal!$A$1763:$A$1866</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>43102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43168</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43227</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43229</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43230</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43236</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43238</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>strat_signal!$C$1763:$C$1866</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.85130746203160801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85134617933772105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85133129985378297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85147236306094198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85180747476004104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85236980270919505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85301418247021299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85363442424328495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85416139812788505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85515113100075202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85622596664106199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85740239438836596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85798735268978898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.858298636387827</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85865762790946898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85902014903221102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85975807618588396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86040136625830999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86174808701787398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86326778022272499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86454718268719699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86599990954040496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.868139461151477</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87317128620706297</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87743442797288396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88088069721697104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.884923938978733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88843774533881803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89131753512658696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89412469434905395</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89595803030966603</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89795679164793696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90008786581306699</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90270096623864104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.90531476281635703</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.90773667853372697</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90966474976329004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91170934989999497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91408351572298696</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.91632137282535597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.91877457316815703</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.920560088157515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92227978753107398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.923988915626756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92574572141941103</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92758044156311004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92920072155498201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93085144147099497</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.93263960639103805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93432014914148298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.93620095923806901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93793316897589696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.94001888156939795</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.941845130445912</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94361011803515504</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94624816840404702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.94867126716987304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95087496161630103</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.953232815812183</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.955475875209018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.95746903224540403</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.96006546625800104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96235761621192295</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.96451565299602704</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.96650125700860301</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.96856078013472902</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.97078494878967903</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.97280715526262895</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97478982541922399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97616276829761495</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.97729942398931502</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.97818305204311695</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97904246909067305</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.98006980585854697</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98099097175956596</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.98203965398462101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.98295751961957001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98410206778681197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.98462257587396096</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.98465491474492595</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98481592365817106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.985152657266683</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.98451246316503904</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.98111771134405201</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.97837063661234303</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.97628616983796501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.97349710645544896</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.97104482673828596</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.96901811227993895</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.96668981286295597</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96527559521070005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96377724156736999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.96281079930812097</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.961369885954106</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95984736560496797</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95851738309537404</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95753944507048405</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.95663866901726902</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.95508600744457595</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.95338514154132803</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.95150932965712198</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.95084862566914397</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.94989662548235099</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.94905299498568296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MA150</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>strat_signal!$A$1763:$A$1866</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>43102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43122</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43146</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43151</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43153</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43157</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43167</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43168</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43171</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43227</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43229</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43230</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43231</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43234</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43235</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43236</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43238</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43241</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43242</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43245</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43249</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43250</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>strat_signal!$D$1763:$D$1866</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0.86962370204025097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86968757074662895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86977884158900798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86986236625805402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86988176393755001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.869959884943867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87000318657667097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87008118796577605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87012151450787401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87021779569562197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87048127009809095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87075871872648802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87091569515739797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87105300074261105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87124706894086901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.87139101812790698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.87154188182255898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87173766413640597</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87224264000747198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.872803581905089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.873142983483855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87359005282884905</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87418980414603797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.87593361627261601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87735290915225705</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87846935614939603</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87971290701523797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88091486059237101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88184388014299797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88285998099545004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88350427313709201</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88421832984772197</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88495925216731297</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88578497962976599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88659852036220799</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88741062315604402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88804277904582996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88866353302187595</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88943911824232602</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.89023001065823104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.89114329924452895</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89180352534431395</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89235667681533903</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.892937240748229</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89339039416003896</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89379456001496504</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.89410975304887996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.89450766471813303</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89492755915289202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89535377014004103</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89566661729161001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89553882644133498</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.89561637961638196</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.89594456018042201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.896211619475482</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89687877631861201</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.89700381674916496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89723713119300497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.897608396611004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89821922604287796</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.89857600491797995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.89917655482291803</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.89971954082497796</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.90019637052280299</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.900625531150544</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90118407276980494</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.90188111039332497</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90252534683026597</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.902998118217757</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90343870862089404</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.90385561649130497</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.90420237700099404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.90455501972883701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.90496551071001097</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.90543812266432899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.90600041982815005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.906567845884795</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.907263528487528</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.90794846101448301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.90851303630318503</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.90905987622763196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.90964392120429205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.91012840135610995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.91066098857185795</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.911190306377338</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.91171457909195897</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.91229683540183903</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.91282756517072905</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.91324362683662597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.91356486101316403</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91382919838041998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91410229932938702</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91459579759746801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.91506658222044002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.91552166252398404</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.916000494169805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.91651559604854305</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.91706713896728698</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.91750467873957497</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.91796961957067502</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.91848062165665001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.91934105849799796</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.91988693180555603</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.92038263125835296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="520210768"/>
+        <c:axId val="530863504"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>S&amp;P 500 Index</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>strat_signal!$I$1763:$I$1866</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2695.8100589999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2713.0600589999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2723.98999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2743.1499020000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2747.709961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2751.290039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2748.2299800000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2767.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2786.23999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2776.419922</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2802.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2798.030029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2810.3000489999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2832.969971</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2839.1298829999901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2837.540039</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2839.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2872.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2853.530029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2822.429932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2823.8100589999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2821.9799800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2762.1298829999901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2648.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2695.139893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2681.6599120000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2619.5500489999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2662.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2698.6298829999901</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2731.1999510000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2732.219971</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2716.26001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2701.330078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2703.959961</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2747.3000489999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2779.6000979999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2744.280029</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2713.830078</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2677.669922</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2691.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2720.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2728.1201169999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2726.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2738.969971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2786.570068</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2783.0200199999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2765.3100589999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2749.4799800000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2747.330078</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2752.01001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2712.919922</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2716.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2711.929932</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2643.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2588.26001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2658.5500489999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2612.6201169999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2640.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2581.8798829999901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2614.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2644.6899410000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2662.8400879999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2604.469971</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2613.1599120000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2656.8701169999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2642.1899410000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2663.98999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2656.3000489999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2677.8400879999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2706.389893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2708.639893</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2693.1298829999901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2670.139893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2670.290039</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2634.5600589999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2639.3999020000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2666.9399410000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2669.9099120000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2648.0500489999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2654.8000489999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2635.669922</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2629.7299800000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2663.419922</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2672.6298829999901</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2671.919922</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2697.790039</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2723.070068</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2727.719971</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2730.1298829999901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2711.4499510000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2722.459961</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2720.1298829999901</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2712.969971</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2733.01001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2724.4399410000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2733.290039</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2727.76001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2721.330078</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2689.860107</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2724.01001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2705.2700199999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="520173664"/>
+        <c:axId val="530980240"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="520210768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530863504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="530863504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520210768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530980240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520173664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="520173664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530980240"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8045,20 +12210,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8070,6 +12235,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8121,7 +12318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8156,7 +12353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8367,8 +12564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Z62" sqref="Z62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
